--- a/Results_Patient_Data.xlsx
+++ b/Results_Patient_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188984EF-5A7E-440B-A078-E9EDAF100BA4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C82BDA-93D0-4466-9F28-9A94320F84DA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
   <si>
     <t>P001</t>
   </si>
@@ -121,9 +121,6 @@
     <t>3072:4096</t>
   </si>
   <si>
-    <t>C vs F</t>
-  </si>
-  <si>
     <t>Run 1</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Eval (Run 5)</t>
+  </si>
+  <si>
+    <t>CROSS SUBJECT</t>
   </si>
 </sst>
 </file>
@@ -234,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -271,6 +271,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -553,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,19 +691,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>20</v>
@@ -709,13 +712,13 @@
         <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1103,156 +1106,225 @@
         <v>15</v>
       </c>
       <c r="B15" s="6">
-        <f>AVERAGE(B5:B14)</f>
+        <f t="shared" ref="B15:L15" si="0">AVERAGE(B5:B14)</f>
         <v>0.5999999940395353</v>
       </c>
       <c r="C15" s="6">
-        <f>AVERAGE(C5:C14)</f>
+        <f t="shared" si="0"/>
         <v>0.69749999642372118</v>
       </c>
       <c r="D15" s="6">
-        <f>AVERAGE(D5:D14)</f>
+        <f t="shared" si="0"/>
         <v>0.67500000298023188</v>
       </c>
       <c r="E15" s="6">
-        <f>AVERAGE(E5:E14)</f>
+        <f t="shared" si="0"/>
         <v>0.69749999940395335</v>
       </c>
       <c r="F15" s="6">
-        <f>AVERAGE(F5:F14)</f>
+        <f t="shared" si="0"/>
         <v>0.65499998927116398</v>
       </c>
       <c r="G15" s="6">
-        <f>AVERAGE(G5:G14)</f>
+        <f t="shared" si="0"/>
         <v>0.66250000298023204</v>
       </c>
       <c r="H15" s="6">
-        <f>AVERAGE(H5:H14)</f>
+        <f t="shared" si="0"/>
         <v>0.66000000238418555</v>
       </c>
       <c r="I15" s="6">
-        <f>AVERAGE(I5:I14)</f>
+        <f t="shared" si="0"/>
         <v>0.68000000715255726</v>
       </c>
       <c r="J15" s="6">
-        <f>AVERAGE(J5:J14)</f>
+        <f t="shared" si="0"/>
         <v>0.63499999642372118</v>
       </c>
       <c r="K15" s="6">
-        <f>AVERAGE(K5:K14)</f>
+        <f t="shared" si="0"/>
         <v>0.66249999999999998</v>
       </c>
       <c r="L15" s="6">
-        <f>AVERAGE(L5:L14)</f>
+        <f t="shared" si="0"/>
         <v>0.61249999105930308</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="3">
-        <f>C5-J5</f>
-        <v>-2.499997615814209E-2</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="3">
-        <f>C6-J6</f>
-        <v>-0.10000002384185702</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="3">
-        <f>C7-J7</f>
-        <v>-4.9999982118606956E-2</v>
-      </c>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="3">
-        <f>C8-J8</f>
-        <v>7.4999988079071933E-2</v>
-      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="3">
-        <f>C9-J9</f>
-        <v>0.375</v>
-      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="3">
-        <f>C10-J10</f>
-        <v>0.125</v>
-      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="3">
-        <f>C11-J11</f>
-        <v>9.9999964237213024E-2</v>
-      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.64999997615814198</v>
+      </c>
+      <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="3">
-        <f>C12-J12</f>
-        <v>-4.9999982118607011E-2</v>
-      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.85000002384185702</v>
+      </c>
+      <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="3">
-        <f>C13-J13</f>
-        <v>7.4999988079071045E-2</v>
-      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="3">
-        <f>C14-J14</f>
-        <v>0.10000002384185802</v>
-      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.72500002384185702</v>
+      </c>
+      <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.67500001192092896</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.60000002384185702</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.55000001192092896</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="6">
+        <f t="shared" ref="B34" si="1">AVERAGE(B24:B33)</f>
+        <v>0.65500000715255713</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A18:E19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
